--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H2">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I2">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J2">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q2">
-        <v>9.404754719627437</v>
+        <v>11.021717167632</v>
       </c>
       <c r="R2">
-        <v>9.404754719627437</v>
+        <v>44.086868670528</v>
       </c>
       <c r="S2">
-        <v>0.0002798271303088615</v>
+        <v>0.0003109304614030678</v>
       </c>
       <c r="T2">
-        <v>0.0002798271303088615</v>
+        <v>0.0001482868014740184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H3">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I3">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J3">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N3">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P3">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q3">
-        <v>3488.219558151078</v>
+        <v>0.4035910057406666</v>
       </c>
       <c r="R3">
-        <v>3488.219558151078</v>
+        <v>2.421546034444</v>
       </c>
       <c r="S3">
-        <v>0.1037877645875839</v>
+        <v>1.138558862693396E-05</v>
       </c>
       <c r="T3">
-        <v>0.1037877645875839</v>
+        <v>8.144904070037539E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H4">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I4">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J4">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N4">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="O4">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P4">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q4">
-        <v>2900.766615640834</v>
+        <v>3708.11407120288</v>
       </c>
       <c r="R4">
-        <v>2900.766615640834</v>
+        <v>22248.68442721728</v>
       </c>
       <c r="S4">
-        <v>0.08630881101625139</v>
+        <v>0.1046085289214541</v>
       </c>
       <c r="T4">
-        <v>0.08630881101625139</v>
+        <v>0.07483376230170673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H5">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I5">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J5">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.325460127842106</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N5">
-        <v>0.325460127842106</v>
+        <v>301.895584</v>
       </c>
       <c r="O5">
-        <v>0.001469862473972854</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P5">
-        <v>0.001469862473972854</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q5">
-        <v>6.669825039371921</v>
+        <v>2993.522243998475</v>
       </c>
       <c r="R5">
-        <v>6.669825039371921</v>
+        <v>17961.13346399085</v>
       </c>
       <c r="S5">
-        <v>0.0001984525972309005</v>
+        <v>0.08444938646041927</v>
       </c>
       <c r="T5">
-        <v>0.0001984525972309005</v>
+        <v>0.06041252446680653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H6">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I6">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J6">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>120.713024122564</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N6">
-        <v>120.713024122564</v>
+        <v>1.236532</v>
       </c>
       <c r="O6">
-        <v>0.5451713715408358</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P6">
-        <v>0.5451713715408358</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q6">
-        <v>2473.835293463621</v>
+        <v>12.26114671295067</v>
       </c>
       <c r="R6">
-        <v>2473.835293463621</v>
+        <v>73.56688027770399</v>
       </c>
       <c r="S6">
-        <v>0.07360598459649444</v>
+        <v>0.0003458956482737925</v>
       </c>
       <c r="T6">
-        <v>0.07360598459649444</v>
+        <v>0.0002474432342275971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.4935243023309</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H7">
-        <v>20.4935243023309</v>
+        <v>65.250653</v>
       </c>
       <c r="I7">
-        <v>0.1350143981120275</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J7">
-        <v>0.1350143981120275</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.383678438344</v>
+        <v>0.370512</v>
       </c>
       <c r="N7">
-        <v>100.383678438344</v>
+        <v>0.741024</v>
       </c>
       <c r="O7">
-        <v>0.4533587659851912</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P7">
-        <v>0.4533587659851912</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q7">
-        <v>2057.215353633573</v>
+        <v>8.058716648112</v>
       </c>
       <c r="R7">
-        <v>2057.215353633573</v>
+        <v>48.352299888672</v>
       </c>
       <c r="S7">
-        <v>0.06120996091830209</v>
+        <v>0.0002273421144458921</v>
       </c>
       <c r="T7">
-        <v>0.06120996091830209</v>
+        <v>0.0001626336392359126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H8">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J8">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.325460127842106</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N8">
-        <v>0.325460127842106</v>
+        <v>0.040702</v>
       </c>
       <c r="O8">
-        <v>0.001469862473972854</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P8">
-        <v>0.001469862473972854</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q8">
-        <v>9.353976080532755</v>
+        <v>0.2950924531562222</v>
       </c>
       <c r="R8">
-        <v>9.353976080532755</v>
+        <v>2.655832078406</v>
       </c>
       <c r="S8">
-        <v>0.0002783162731645279</v>
+        <v>8.324767476875877E-06</v>
       </c>
       <c r="T8">
-        <v>0.0002783162731645279</v>
+        <v>8.93292846679745E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H9">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J9">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.713024122564</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N9">
-        <v>120.713024122564</v>
+        <v>373.961899</v>
       </c>
       <c r="O9">
-        <v>0.5451713715408358</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P9">
-        <v>0.5451713715408358</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q9">
-        <v>3469.38578233163</v>
+        <v>2711.250900763339</v>
       </c>
       <c r="R9">
-        <v>3469.38578233163</v>
+        <v>24401.25810687005</v>
       </c>
       <c r="S9">
-        <v>0.1032273883100997</v>
+        <v>0.07648631159122256</v>
       </c>
       <c r="T9">
-        <v>0.1032273883100997</v>
+        <v>0.08207397408173389</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H10">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I10">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J10">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.383678438344</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N10">
-        <v>100.383678438344</v>
+        <v>301.895584</v>
       </c>
       <c r="O10">
-        <v>0.4533587659851912</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P10">
-        <v>0.4533587659851912</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q10">
-        <v>2885.104646194025</v>
+        <v>2188.764888201817</v>
       </c>
       <c r="R10">
-        <v>2885.104646194025</v>
+        <v>19698.88399381635</v>
       </c>
       <c r="S10">
-        <v>0.08584280801075685</v>
+        <v>0.06174661046375236</v>
       </c>
       <c r="T10">
-        <v>0.08584280801075685</v>
+        <v>0.06625747276089726</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.5696357641836</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H11">
-        <v>54.5696357641836</v>
+        <v>65.250653</v>
       </c>
       <c r="I11">
-        <v>0.3595129085267109</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J11">
-        <v>0.3595129085267109</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.325460127842106</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N11">
-        <v>0.325460127842106</v>
+        <v>1.236532</v>
       </c>
       <c r="O11">
-        <v>0.001469862473972854</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P11">
-        <v>0.001469862473972854</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q11">
-        <v>17.76024063210835</v>
+        <v>8.964946717266223</v>
       </c>
       <c r="R11">
-        <v>17.76024063210835</v>
+        <v>80.684520455396</v>
       </c>
       <c r="S11">
-        <v>0.0005284345331522475</v>
+        <v>0.0002529075076830691</v>
       </c>
       <c r="T11">
-        <v>0.0005284345331522475</v>
+        <v>0.0002713835168518988</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.5696357641836</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H12">
-        <v>54.5696357641836</v>
+        <v>93.011927</v>
       </c>
       <c r="I12">
-        <v>0.3595129085267109</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J12">
-        <v>0.3595129085267109</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>120.713024122564</v>
+        <v>0.370512</v>
       </c>
       <c r="N12">
-        <v>120.713024122564</v>
+        <v>0.741024</v>
       </c>
       <c r="O12">
-        <v>0.5451713715408358</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P12">
-        <v>0.5451713715408358</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q12">
-        <v>6587.265758361426</v>
+        <v>11.487345032208</v>
       </c>
       <c r="R12">
-        <v>6587.265758361426</v>
+        <v>68.924070193248</v>
       </c>
       <c r="S12">
-        <v>0.195996145428142</v>
+        <v>0.0003240661538340001</v>
       </c>
       <c r="T12">
-        <v>0.195996145428142</v>
+        <v>0.0002318270773528509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.5696357641836</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H13">
-        <v>54.5696357641836</v>
+        <v>93.011927</v>
       </c>
       <c r="I13">
-        <v>0.3595129085267109</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J13">
-        <v>0.3595129085267109</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>100.383678438344</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N13">
-        <v>100.383678438344</v>
+        <v>0.040702</v>
       </c>
       <c r="O13">
-        <v>0.4533587659851912</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P13">
-        <v>0.4533587659851912</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q13">
-        <v>5477.900769049364</v>
+        <v>0.4206412725282223</v>
       </c>
       <c r="R13">
-        <v>5477.900769049364</v>
+        <v>3.785771452754</v>
       </c>
       <c r="S13">
-        <v>0.1629883285654166</v>
+        <v>1.186658875047815E-05</v>
       </c>
       <c r="T13">
-        <v>0.1629883285654166</v>
+        <v>1.273349540961661E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H14">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I14">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J14">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.325460127842106</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N14">
-        <v>0.325460127842106</v>
+        <v>373.961899</v>
       </c>
       <c r="O14">
-        <v>0.001469862473972854</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P14">
-        <v>0.001469862473972854</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q14">
-        <v>5.62948178370501</v>
+        <v>3864.768538952153</v>
       </c>
       <c r="R14">
-        <v>5.62948178370501</v>
+        <v>34782.91685056937</v>
       </c>
       <c r="S14">
-        <v>0.0001674984387814622</v>
+        <v>0.1090278626057895</v>
       </c>
       <c r="T14">
-        <v>0.0001674984387814622</v>
+        <v>0.1169928289589703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H15">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I15">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J15">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>120.713024122564</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N15">
-        <v>120.713024122564</v>
+        <v>301.895584</v>
       </c>
       <c r="O15">
-        <v>0.5451713715408358</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P15">
-        <v>0.5451713715408358</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q15">
-        <v>2087.972418801469</v>
+        <v>3119.987780070041</v>
       </c>
       <c r="R15">
-        <v>2087.972418801469</v>
+        <v>28079.89002063037</v>
       </c>
       <c r="S15">
-        <v>0.06212510028548763</v>
+        <v>0.0880170689625431</v>
       </c>
       <c r="T15">
-        <v>0.06212510028548763</v>
+        <v>0.094447104148384</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H16">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I16">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J16">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>100.383678438344</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N16">
-        <v>100.383678438344</v>
+        <v>1.236532</v>
       </c>
       <c r="O16">
-        <v>0.4533587659851912</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P16">
-        <v>0.4533587659851912</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q16">
-        <v>1736.335854400315</v>
+        <v>12.77913601301822</v>
       </c>
       <c r="R16">
-        <v>1736.335854400315</v>
+        <v>115.012224117164</v>
       </c>
       <c r="S16">
-        <v>0.05166257854393815</v>
+        <v>0.0003605084939513105</v>
       </c>
       <c r="T16">
-        <v>0.05166257854393815</v>
+        <v>0.0003868452298620227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.78997169000015</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H17">
-        <v>1.78997169000015</v>
+        <v>164.044102</v>
       </c>
       <c r="I17">
-        <v>0.01179260076488901</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J17">
-        <v>0.01179260076488901</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N17">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O17">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P17">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q17">
-        <v>0.5825644150611994</v>
+        <v>20.260102773408</v>
       </c>
       <c r="R17">
-        <v>0.5825644150611994</v>
+        <v>121.560616640448</v>
       </c>
       <c r="S17">
-        <v>1.733350133485393E-05</v>
+        <v>0.0005715518741407476</v>
       </c>
       <c r="T17">
-        <v>1.733350133485393E-05</v>
+        <v>0.0004088708400120876</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.78997169000015</v>
+        <v>54.68136733333333</v>
       </c>
       <c r="H18">
-        <v>1.78997169000015</v>
+        <v>164.044102</v>
       </c>
       <c r="I18">
-        <v>0.01179260076488901</v>
+        <v>0.3487542616983074</v>
       </c>
       <c r="J18">
-        <v>0.01179260076488901</v>
+        <v>0.37402786366769</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N18">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O18">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P18">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q18">
-        <v>216.0728957936948</v>
+        <v>0.7418803377337778</v>
       </c>
       <c r="R18">
-        <v>216.0728957936948</v>
+        <v>6.676923039604</v>
       </c>
       <c r="S18">
-        <v>0.006428988333028051</v>
+        <v>2.092897070475155E-05</v>
       </c>
       <c r="T18">
-        <v>0.006428988333028051</v>
+        <v>2.245792434546249E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H19">
+        <v>164.044102</v>
+      </c>
+      <c r="I19">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J19">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N19">
+        <v>373.961899</v>
+      </c>
+      <c r="O19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q19">
+        <v>6816.249322629968</v>
+      </c>
+      <c r="R19">
+        <v>61346.2439036697</v>
+      </c>
+      <c r="S19">
+        <v>0.1922912296413998</v>
+      </c>
+      <c r="T19">
+        <v>0.2063389522831184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H20">
+        <v>164.044102</v>
+      </c>
+      <c r="I20">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J20">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N20">
+        <v>301.895584</v>
+      </c>
+      <c r="O20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q20">
+        <v>5502.687775005063</v>
+      </c>
+      <c r="R20">
+        <v>49524.18997504557</v>
+      </c>
+      <c r="S20">
+        <v>0.1552347263876433</v>
+      </c>
+      <c r="T20">
+        <v>0.1665753079873523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H21">
+        <v>164.044102</v>
+      </c>
+      <c r="I21">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J21">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.236532</v>
+      </c>
+      <c r="O21">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P21">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q21">
+        <v>22.53842017047378</v>
+      </c>
+      <c r="R21">
+        <v>202.845781534264</v>
+      </c>
+      <c r="S21">
+        <v>0.0006358248244186487</v>
+      </c>
+      <c r="T21">
+        <v>0.0006822746328618597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.571287</v>
+      </c>
+      <c r="H22">
+        <v>52.713861</v>
+      </c>
+      <c r="I22">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J22">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.370512</v>
+      </c>
+      <c r="N22">
+        <v>0.741024</v>
+      </c>
+      <c r="O22">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P22">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q22">
+        <v>6.510372688944001</v>
+      </c>
+      <c r="R22">
+        <v>39.062236133664</v>
+      </c>
+      <c r="S22">
+        <v>0.0001836622327802122</v>
+      </c>
+      <c r="T22">
+        <v>0.0001313863794222265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.571287</v>
+      </c>
+      <c r="H23">
+        <v>52.713861</v>
+      </c>
+      <c r="I23">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J23">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.040702</v>
+      </c>
+      <c r="O23">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P23">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.2383955078246667</v>
+      </c>
+      <c r="R23">
+        <v>2.145559570422</v>
+      </c>
+      <c r="S23">
+        <v>6.725306421582564E-06</v>
+      </c>
+      <c r="T23">
+        <v>7.21661972519576E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.571287</v>
+      </c>
+      <c r="H24">
+        <v>52.713861</v>
+      </c>
+      <c r="I24">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J24">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N24">
+        <v>373.961899</v>
+      </c>
+      <c r="O24">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P24">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q24">
+        <v>2190.330618131338</v>
+      </c>
+      <c r="R24">
+        <v>19712.97556318204</v>
+      </c>
+      <c r="S24">
+        <v>0.06179078081597735</v>
+      </c>
+      <c r="T24">
+        <v>0.06630486995221524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.571287</v>
+      </c>
+      <c r="H25">
+        <v>52.713861</v>
+      </c>
+      <c r="I25">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J25">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N25">
+        <v>301.895584</v>
+      </c>
+      <c r="O25">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P25">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q25">
+        <v>1768.231316832203</v>
+      </c>
+      <c r="R25">
+        <v>15914.08185148982</v>
+      </c>
+      <c r="S25">
+        <v>0.04988306003937443</v>
+      </c>
+      <c r="T25">
+        <v>0.05352723764050644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.571287</v>
+      </c>
+      <c r="H26">
+        <v>52.713861</v>
+      </c>
+      <c r="I26">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J26">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.236532</v>
+      </c>
+      <c r="O26">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P26">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q26">
+        <v>7.242486218894667</v>
+      </c>
+      <c r="R26">
+        <v>65.18237597005199</v>
+      </c>
+      <c r="S26">
+        <v>0.0002043156749076785</v>
+      </c>
+      <c r="T26">
+        <v>0.0002192418363234181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.0364265</v>
+      </c>
+      <c r="H27">
+        <v>4.072853</v>
+      </c>
+      <c r="I27">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J27">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.370512</v>
+      </c>
+      <c r="N27">
+        <v>0.741024</v>
+      </c>
+      <c r="O27">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P27">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q27">
+        <v>0.7545204553680001</v>
+      </c>
+      <c r="R27">
+        <v>3.018081821472</v>
+      </c>
+      <c r="S27">
+        <v>2.128555739160101E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.015136056129437E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.0364265</v>
+      </c>
+      <c r="H28">
+        <v>4.072853</v>
+      </c>
+      <c r="I28">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J28">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.040702</v>
+      </c>
+      <c r="O28">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P28">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.02762887713433334</v>
+      </c>
+      <c r="R28">
+        <v>0.165773262806</v>
+      </c>
+      <c r="S28">
+        <v>7.794302271387921E-07</v>
+      </c>
+      <c r="T28">
+        <v>5.575806958557396E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.0364265</v>
+      </c>
+      <c r="H29">
+        <v>4.072853</v>
+      </c>
+      <c r="I29">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J29">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N29">
+        <v>373.961899</v>
+      </c>
+      <c r="O29">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P29">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q29">
+        <v>253.8486403713079</v>
+      </c>
+      <c r="R29">
+        <v>1523.091842227847</v>
+      </c>
+      <c r="S29">
+        <v>0.007161250254995431</v>
+      </c>
+      <c r="T29">
+        <v>0.005122940785906192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.78997169000015</v>
-      </c>
-      <c r="H19">
-        <v>1.78997169000015</v>
-      </c>
-      <c r="I19">
-        <v>0.01179260076488901</v>
-      </c>
-      <c r="J19">
-        <v>0.01179260076488901</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="N19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="O19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="P19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="Q19">
-        <v>179.6839425427142</v>
-      </c>
-      <c r="R19">
-        <v>179.6839425427142</v>
-      </c>
-      <c r="S19">
-        <v>0.005346278930526103</v>
-      </c>
-      <c r="T19">
-        <v>0.005346278930526103</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.0364265</v>
+      </c>
+      <c r="H30">
+        <v>4.072853</v>
+      </c>
+      <c r="I30">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J30">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N30">
+        <v>301.895584</v>
+      </c>
+      <c r="O30">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P30">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q30">
+        <v>204.9293891635253</v>
+      </c>
+      <c r="R30">
+        <v>1229.576334981152</v>
+      </c>
+      <c r="S30">
+        <v>0.005781203469345936</v>
+      </c>
+      <c r="T30">
+        <v>0.00413569725818129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.0364265</v>
+      </c>
+      <c r="H31">
+        <v>4.072853</v>
+      </c>
+      <c r="I31">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J31">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.236532</v>
+      </c>
+      <c r="O31">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P31">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q31">
+        <v>0.8393688442993334</v>
+      </c>
+      <c r="R31">
+        <v>5.036213065796</v>
+      </c>
+      <c r="S31">
+        <v>2.36791906447935E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.693937332337205E-05</v>
       </c>
     </row>
   </sheetData>
